--- a/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,12 +163,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -238,18 +238,27 @@
     <t>SSC Farul</t>
   </si>
   <si>
+    <t>Aris</t>
+  </si>
+  <si>
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
     <t>Hartberg</t>
   </si>
   <si>
     <t>Twente</t>
   </si>
   <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
@@ -259,15 +268,6 @@
     <t>IFK Göteborg</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
-    <t>Pyramids FC</t>
-  </si>
-  <si>
     <t>AEK Athens</t>
   </si>
   <si>
@@ -277,13 +277,16 @@
     <t>Rampla Juniors</t>
   </si>
   <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
     <t>RSC Anderlecht</t>
   </si>
   <si>
     <t>Club Brugge</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
+    <t>Sepsi</t>
   </si>
   <si>
     <t>Wolverhampton Wanderers</t>
@@ -292,9 +295,6 @@
     <t>Coventry City</t>
   </si>
   <si>
-    <t>Sepsi</t>
-  </si>
-  <si>
     <t>Ajax</t>
   </si>
   <si>
@@ -331,18 +331,27 @@
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Olympiakos Piraeus</t>
+  </si>
+  <si>
     <t>Salzburg</t>
   </si>
   <si>
-    <t>Olympiakos Piraeus</t>
-  </si>
-  <si>
     <t>LASK Linz</t>
   </si>
   <si>
     <t>Almere City</t>
   </si>
   <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
@@ -352,15 +361,6 @@
     <t>Häcken</t>
   </si>
   <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
@@ -370,22 +370,22 @@
     <t>Defensor Sporting</t>
   </si>
   <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
     <t>Cercle Brugge</t>
   </si>
   <si>
     <t>KRC Genk</t>
   </si>
   <si>
-    <t>Sturm Graz</t>
+    <t>FCSB</t>
   </si>
   <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
     <t>Hull City</t>
-  </si>
-  <si>
-    <t>FCSB</t>
   </si>
   <si>
     <t>Excelsior</t>
@@ -934,13 +934,13 @@
         <v>4.75</v>
       </c>
       <c r="J2">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="K2">
-        <v>3.25</v>
+        <v>3.47</v>
       </c>
       <c r="L2">
-        <v>4.03</v>
+        <v>4.44</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -961,10 +961,10 @@
         <v>2.65</v>
       </c>
       <c r="S2">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U2">
         <v>2.18</v>
@@ -1030,10 +1030,10 @@
         <v>1.25</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1056,22 +1056,22 @@
         <v>101</v>
       </c>
       <c r="G3">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>4.09</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>1.66</v>
@@ -1086,22 +1086,22 @@
         <v>5.27</v>
       </c>
       <c r="Q3">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="R3">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="S3">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U3">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="V3">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="W3">
         <v>1.3</v>
@@ -1128,43 +1128,43 @@
         <v>2.96</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1196,13 +1196,13 @@
         <v>1.62</v>
       </c>
       <c r="J4">
-        <v>12.25</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="L4">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M4">
         <v>1.29</v>
@@ -1226,7 +1226,7 @@
         <v>1.55</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="U4">
         <v>2.25</v>
@@ -1327,13 +1327,13 @@
         <v>2.7</v>
       </c>
       <c r="J5">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="L5">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1354,10 +1354,10 @@
         <v>3.5</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U5">
         <v>1.68</v>
@@ -1390,43 +1390,43 @@
         <v>3.11</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1458,13 +1458,13 @@
         <v>3.65</v>
       </c>
       <c r="J6">
-        <v>2.41</v>
+        <v>2.54</v>
       </c>
       <c r="K6">
-        <v>2.99</v>
+        <v>3.36</v>
       </c>
       <c r="L6">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="M6">
         <v>1.43</v>
@@ -1485,10 +1485,10 @@
         <v>3.05</v>
       </c>
       <c r="S6">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="U6">
         <v>1.88</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>45406</v>
@@ -1571,7 +1571,7 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
@@ -1580,46 +1580,46 @@
         <v>105</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="J7">
-        <v>6.6</v>
+        <v>4.52</v>
       </c>
       <c r="K7">
-        <v>4.57</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="M7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q7">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="R7">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="S7">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
         <v>1.91</v>
@@ -1628,72 +1628,72 @@
         <v>1.91</v>
       </c>
       <c r="W7">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="X7">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y7">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z7">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="AA7">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="AC7">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AD7">
-        <v>2.74</v>
+        <v>3.28</v>
       </c>
       <c r="AE7">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AG7">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AH7">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AI7">
-        <v>3.14</v>
+        <v>2.49</v>
       </c>
       <c r="AJ7">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AK7">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="AM7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AN7">
-        <v>2.4</v>
+        <v>3.28</v>
       </c>
       <c r="AO7">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AP7">
-        <v>3.48</v>
+        <v>4.75</v>
       </c>
       <c r="AQ7">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>45406</v>
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
@@ -1711,46 +1711,46 @@
         <v>106</v>
       </c>
       <c r="G8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I8">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="J8">
-        <v>4.48</v>
+        <v>6.66</v>
       </c>
       <c r="K8">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L8">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P8">
-        <v>9.300000000000001</v>
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="R8">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="U8">
         <v>1.91</v>
@@ -1759,67 +1759,67 @@
         <v>1.91</v>
       </c>
       <c r="W8">
+        <v>2.75</v>
+      </c>
+      <c r="X8">
+        <v>1.2</v>
+      </c>
+      <c r="Y8">
+        <v>1.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.23</v>
+      </c>
+      <c r="AA8">
         <v>2.15</v>
       </c>
-      <c r="X8">
-        <v>1.22</v>
-      </c>
-      <c r="Y8">
-        <v>1.18</v>
-      </c>
-      <c r="Z8">
-        <v>1.88</v>
-      </c>
-      <c r="AA8">
+      <c r="AB8">
+        <v>1.26</v>
+      </c>
+      <c r="AC8">
+        <v>1.48</v>
+      </c>
+      <c r="AD8">
+        <v>2.74</v>
+      </c>
+      <c r="AE8">
+        <v>3.46</v>
+      </c>
+      <c r="AF8">
+        <v>8.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.45</v>
+      </c>
+      <c r="AH8">
+        <v>1.29</v>
+      </c>
+      <c r="AI8">
+        <v>3.14</v>
+      </c>
+      <c r="AJ8">
+        <v>1.55</v>
+      </c>
+      <c r="AK8">
+        <v>2.3</v>
+      </c>
+      <c r="AL8">
         <v>2</v>
       </c>
-      <c r="AB8">
-        <v>1.69</v>
-      </c>
-      <c r="AC8">
-        <v>1.59</v>
-      </c>
-      <c r="AD8">
-        <v>3.28</v>
-      </c>
-      <c r="AE8">
-        <v>3.38</v>
-      </c>
-      <c r="AF8">
-        <v>8.9</v>
-      </c>
-      <c r="AG8">
-        <v>1.46</v>
-      </c>
-      <c r="AH8">
-        <v>1.47</v>
-      </c>
-      <c r="AI8">
-        <v>2.49</v>
-      </c>
-      <c r="AJ8">
-        <v>1.92</v>
-      </c>
-      <c r="AK8">
-        <v>1.88</v>
-      </c>
-      <c r="AL8">
-        <v>2.41</v>
-      </c>
       <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>2.4</v>
+      </c>
+      <c r="AO8">
         <v>1.5</v>
       </c>
-      <c r="AN8">
-        <v>3.28</v>
-      </c>
-      <c r="AO8">
-        <v>1.27</v>
-      </c>
       <c r="AP8">
-        <v>4.75</v>
+        <v>3.48</v>
       </c>
       <c r="AQ8">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1851,13 +1851,13 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="K9">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -1878,7 +1878,7 @@
         <v>3.15</v>
       </c>
       <c r="S9">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T9">
         <v>1.81</v>
@@ -1923,10 +1923,10 @@
         <v>1.82</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AJ9">
         <v>1.55</v>
@@ -1947,10 +1947,10 @@
         <v>1.55</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1982,13 +1982,13 @@
         <v>8.5</v>
       </c>
       <c r="J10">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="K10">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L10">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -2009,10 +2009,10 @@
         <v>4.65</v>
       </c>
       <c r="S10">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="U10">
         <v>2.05</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>45406</v>
@@ -2095,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>78</v>
@@ -2104,120 +2104,120 @@
         <v>109</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="H11">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="I11">
-        <v>1.83</v>
+        <v>6.5</v>
       </c>
       <c r="J11">
-        <v>6.75</v>
+        <v>1.4</v>
       </c>
       <c r="K11">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>1.36</v>
       </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>3.08</v>
       </c>
       <c r="O11">
         <v>1.01</v>
       </c>
       <c r="P11">
-        <v>21</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q11">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="R11">
-        <v>5.2</v>
+        <v>3.54</v>
       </c>
       <c r="S11">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="U11">
+        <v>2.1</v>
+      </c>
+      <c r="V11">
         <v>1.67</v>
       </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
       <c r="W11">
-        <v>2.85</v>
+        <v>1.06</v>
       </c>
       <c r="X11">
         <v>1.18</v>
       </c>
       <c r="Y11">
-        <v>1.13</v>
+        <v>2.67</v>
       </c>
       <c r="Z11">
-        <v>0.93</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="AC11">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="AD11">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="AE11">
-        <v>3.45</v>
+        <v>1.36</v>
       </c>
       <c r="AF11">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG11">
-        <v>1.44</v>
+        <v>3.68</v>
       </c>
       <c r="AH11">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AI11">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="AJ11">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AK11">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="AL11">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AM11">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="AN11">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AO11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>45406</v>
@@ -2226,7 +2226,7 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -2235,76 +2235,76 @@
         <v>110</v>
       </c>
       <c r="G12">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.43</v>
+      </c>
+      <c r="AA12">
+        <v>1.14</v>
+      </c>
+      <c r="AB12">
         <v>1.27</v>
       </c>
-      <c r="R12">
-        <v>3.8</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>1.96</v>
-      </c>
-      <c r="U12">
-        <v>1.83</v>
-      </c>
-      <c r="V12">
-        <v>1.83</v>
-      </c>
-      <c r="W12">
-        <v>1.14</v>
-      </c>
-      <c r="X12">
-        <v>1.18</v>
-      </c>
-      <c r="Y12">
-        <v>2.35</v>
-      </c>
-      <c r="Z12">
+      <c r="AC12">
+        <v>1.73</v>
+      </c>
+      <c r="AD12">
         <v>3</v>
-      </c>
-      <c r="AA12">
-        <v>2</v>
-      </c>
-      <c r="AB12">
-        <v>1.2</v>
-      </c>
-      <c r="AC12">
-        <v>0.88</v>
-      </c>
-      <c r="AD12">
-        <v>2.08</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
         <v>45406</v>
@@ -2366,28 +2366,28 @@
         <v>111</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H13">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="K13">
-        <v>3.62</v>
+        <v>3.76</v>
       </c>
       <c r="L13">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="M13">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O13">
         <v>1.04</v>
@@ -2396,85 +2396,85 @@
         <v>11</v>
       </c>
       <c r="Q13">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R13">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S13">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
+        <v>1.56</v>
+      </c>
+      <c r="V13">
+        <v>2.53</v>
+      </c>
+      <c r="W13">
+        <v>1.44</v>
+      </c>
+      <c r="X13">
+        <v>1.28</v>
+      </c>
+      <c r="Y13">
+        <v>1.67</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.92</v>
+      </c>
+      <c r="AC13">
+        <v>1.26</v>
+      </c>
+      <c r="AD13">
+        <v>3.18</v>
+      </c>
+      <c r="AE13">
+        <v>1.86</v>
+      </c>
+      <c r="AF13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG13">
         <v>2.23</v>
       </c>
-      <c r="U13">
-        <v>1.5</v>
-      </c>
-      <c r="V13">
-        <v>2.35</v>
-      </c>
-      <c r="W13">
-        <v>1.48</v>
-      </c>
-      <c r="X13">
-        <v>1.22</v>
-      </c>
-      <c r="Y13">
-        <v>1.5</v>
-      </c>
-      <c r="Z13">
-        <v>0.5</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>1.05</v>
-      </c>
-      <c r="AC13">
-        <v>1.24</v>
-      </c>
-      <c r="AD13">
-        <v>2.29</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2488,7 +2488,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>81</v>
@@ -2497,120 +2497,120 @@
         <v>112</v>
       </c>
       <c r="G14">
-        <v>2.85</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="I14">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="J14">
-        <v>2.36</v>
+        <v>8.65</v>
       </c>
       <c r="K14">
-        <v>3.57</v>
+        <v>5.44</v>
       </c>
       <c r="L14">
-        <v>2.89</v>
+        <v>1.4</v>
       </c>
       <c r="M14">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="N14">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O14">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q14">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="R14">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="S14">
         <v>1.58</v>
       </c>
       <c r="T14">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="U14">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="V14">
-        <v>2.53</v>
+        <v>2.1</v>
       </c>
       <c r="W14">
+        <v>2.85</v>
+      </c>
+      <c r="X14">
+        <v>1.18</v>
+      </c>
+      <c r="Y14">
+        <v>1.13</v>
+      </c>
+      <c r="Z14">
+        <v>0.93</v>
+      </c>
+      <c r="AA14">
+        <v>2.43</v>
+      </c>
+      <c r="AB14">
+        <v>1.2</v>
+      </c>
+      <c r="AC14">
+        <v>1.62</v>
+      </c>
+      <c r="AD14">
+        <v>2.82</v>
+      </c>
+      <c r="AE14">
+        <v>3.45</v>
+      </c>
+      <c r="AF14">
+        <v>8.5</v>
+      </c>
+      <c r="AG14">
         <v>1.44</v>
       </c>
-      <c r="X14">
-        <v>1.28</v>
-      </c>
-      <c r="Y14">
-        <v>1.67</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
+      <c r="AH14">
+        <v>1.25</v>
+      </c>
+      <c r="AI14">
+        <v>3.25</v>
+      </c>
+      <c r="AJ14">
+        <v>1.48</v>
+      </c>
+      <c r="AK14">
+        <v>2.35</v>
+      </c>
+      <c r="AL14">
+        <v>1.83</v>
+      </c>
+      <c r="AM14">
+        <v>1.86</v>
+      </c>
+      <c r="AN14">
+        <v>2.3</v>
+      </c>
+      <c r="AO14">
         <v>1.5</v>
       </c>
-      <c r="AB14">
-        <v>1.92</v>
-      </c>
-      <c r="AC14">
-        <v>1.26</v>
-      </c>
-      <c r="AD14">
-        <v>3.18</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>45406</v>
@@ -2619,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
@@ -2628,120 +2628,120 @@
         <v>113</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Z15">
-        <v>0.43</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AC15">
-        <v>1.73</v>
+        <v>0.88</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>45406</v>
@@ -2750,7 +2750,7 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -2759,115 +2759,115 @@
         <v>114</v>
       </c>
       <c r="G16">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="I16">
-        <v>7.47</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>1.41</v>
+        <v>2.47</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="L16">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="M16">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N16">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P16">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="R16">
-        <v>3.54</v>
+        <v>4.33</v>
       </c>
       <c r="S16">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="T16">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="U16">
-        <v>2.01</v>
+        <v>1.5</v>
       </c>
       <c r="V16">
-        <v>1.76</v>
+        <v>2.35</v>
       </c>
       <c r="W16">
-        <v>1.06</v>
+        <v>1.48</v>
       </c>
       <c r="X16">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Y16">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>2.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC16">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AD16">
-        <v>3.4</v>
+        <v>2.29</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2899,13 +2899,13 @@
         <v>4.5</v>
       </c>
       <c r="J17">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.93</v>
+        <v>3.82</v>
       </c>
       <c r="M17">
         <v>1.4</v>
@@ -3027,16 +3027,16 @@
         <v>2.38</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J18">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="K18">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="L18">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="M18">
         <v>1.25</v>
@@ -3057,10 +3057,10 @@
         <v>4.82</v>
       </c>
       <c r="S18">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="T18">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.5</v>
@@ -3093,13 +3093,13 @@
         <v>2.94</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3108,28 +3108,28 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3152,61 +3152,61 @@
         <v>117</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>45406</v>
@@ -3274,7 +3274,7 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
@@ -3283,115 +3283,115 @@
         <v>118</v>
       </c>
       <c r="G20">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="H20">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="I20">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="J20">
-        <v>2.08</v>
+        <v>2.75</v>
       </c>
       <c r="K20">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L20">
-        <v>3.35</v>
+        <v>2.49</v>
       </c>
       <c r="M20">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="O20">
         <v>1.05</v>
       </c>
       <c r="P20">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="Q20">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R20">
-        <v>4.09</v>
+        <v>3.6</v>
       </c>
       <c r="S20">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="T20">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="U20">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V20">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="X20">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y20">
+        <v>1.45</v>
+      </c>
+      <c r="Z20">
+        <v>1.23</v>
+      </c>
+      <c r="AA20">
+        <v>2.15</v>
+      </c>
+      <c r="AB20">
+        <v>1.66</v>
+      </c>
+      <c r="AC20">
+        <v>1.46</v>
+      </c>
+      <c r="AD20">
+        <v>3.12</v>
+      </c>
+      <c r="AE20">
+        <v>1.95</v>
+      </c>
+      <c r="AF20">
+        <v>8</v>
+      </c>
+      <c r="AG20">
+        <v>2.1</v>
+      </c>
+      <c r="AH20">
+        <v>1.21</v>
+      </c>
+      <c r="AI20">
+        <v>3.74</v>
+      </c>
+      <c r="AJ20">
+        <v>1.45</v>
+      </c>
+      <c r="AK20">
+        <v>2.55</v>
+      </c>
+      <c r="AL20">
         <v>1.73</v>
       </c>
-      <c r="Z20">
-        <v>2.47</v>
-      </c>
-      <c r="AA20">
-        <v>1.47</v>
-      </c>
-      <c r="AB20">
-        <v>1.59</v>
-      </c>
-      <c r="AC20">
-        <v>1.58</v>
-      </c>
-      <c r="AD20">
-        <v>3.17</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
       <c r="AM20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3414,46 +3414,46 @@
         <v>119</v>
       </c>
       <c r="G21">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H21">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I21">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J21">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="K21">
-        <v>3.83</v>
+        <v>3.73</v>
       </c>
       <c r="L21">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
       <c r="M21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N21">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q21">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R21">
-        <v>4.33</v>
+        <v>4.09</v>
       </c>
       <c r="S21">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="T21">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="U21">
         <v>1.57</v>
@@ -3462,72 +3462,72 @@
         <v>2.2</v>
       </c>
       <c r="W21">
+        <v>1.3</v>
+      </c>
+      <c r="X21">
         <v>1.25</v>
       </c>
-      <c r="X21">
-        <v>1.2</v>
-      </c>
       <c r="Y21">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="Z21">
-        <v>2.12</v>
+        <v>2.47</v>
       </c>
       <c r="AA21">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AB21">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="AC21">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AD21">
-        <v>3.51</v>
+        <v>3.17</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>45406</v>
@@ -3536,7 +3536,7 @@
         <v>65</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>89</v>
@@ -3545,120 +3545,120 @@
         <v>120</v>
       </c>
       <c r="G22">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="H22">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="I22">
-        <v>3.18</v>
+        <v>3.95</v>
       </c>
       <c r="J22">
-        <v>2.73</v>
+        <v>1.83</v>
       </c>
       <c r="K22">
-        <v>3.43</v>
+        <v>3.97</v>
       </c>
       <c r="L22">
-        <v>2.49</v>
+        <v>4.01</v>
       </c>
       <c r="M22">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="N22">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="O22">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P22">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R22">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="S22">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="T22">
+        <v>2.26</v>
+      </c>
+      <c r="U22">
+        <v>1.57</v>
+      </c>
+      <c r="V22">
+        <v>2.2</v>
+      </c>
+      <c r="W22">
+        <v>1.25</v>
+      </c>
+      <c r="X22">
+        <v>1.2</v>
+      </c>
+      <c r="Y22">
+        <v>1.91</v>
+      </c>
+      <c r="Z22">
+        <v>2.12</v>
+      </c>
+      <c r="AA22">
+        <v>1.63</v>
+      </c>
+      <c r="AB22">
         <v>1.84</v>
       </c>
-      <c r="U22">
-        <v>1.7</v>
-      </c>
-      <c r="V22">
-        <v>2.05</v>
-      </c>
-      <c r="W22">
-        <v>1.52</v>
-      </c>
-      <c r="X22">
-        <v>1.32</v>
-      </c>
-      <c r="Y22">
-        <v>1.45</v>
-      </c>
-      <c r="Z22">
+      <c r="AC22">
+        <v>1.67</v>
+      </c>
+      <c r="AD22">
+        <v>3.51</v>
+      </c>
+      <c r="AE22">
+        <v>1.37</v>
+      </c>
+      <c r="AF22">
+        <v>8.5</v>
+      </c>
+      <c r="AG22">
+        <v>3.75</v>
+      </c>
+      <c r="AH22">
         <v>1.23</v>
       </c>
-      <c r="AA22">
-        <v>2.15</v>
-      </c>
-      <c r="AB22">
-        <v>1.66</v>
-      </c>
-      <c r="AC22">
-        <v>1.46</v>
-      </c>
-      <c r="AD22">
-        <v>3.12</v>
-      </c>
-      <c r="AE22">
-        <v>1.95</v>
-      </c>
-      <c r="AF22">
-        <v>8</v>
-      </c>
-      <c r="AG22">
-        <v>2.1</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
       <c r="AI22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ22">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AK22">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AL22">
+        <v>1.61</v>
+      </c>
+      <c r="AM22">
+        <v>2.2</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
         <v>1.73</v>
       </c>
-      <c r="AM22">
-        <v>2</v>
-      </c>
-      <c r="AN22">
-        <v>2.1</v>
-      </c>
-      <c r="AO22">
-        <v>1.65</v>
-      </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>45406</v>
@@ -3667,7 +3667,7 @@
         <v>66</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
@@ -3676,120 +3676,120 @@
         <v>121</v>
       </c>
       <c r="G23">
+        <v>4.1</v>
+      </c>
+      <c r="H23">
+        <v>2.07</v>
+      </c>
+      <c r="I23">
+        <v>2.75</v>
+      </c>
+      <c r="J23">
+        <v>3.45</v>
+      </c>
+      <c r="K23">
+        <v>3.35</v>
+      </c>
+      <c r="L23">
+        <v>2.03</v>
+      </c>
+      <c r="M23">
+        <v>1.38</v>
+      </c>
+      <c r="N23">
+        <v>2.8</v>
+      </c>
+      <c r="O23">
+        <v>1.06</v>
+      </c>
+      <c r="P23">
+        <v>9.75</v>
+      </c>
+      <c r="Q23">
+        <v>1.32</v>
+      </c>
+      <c r="R23">
         <v>3.1</v>
       </c>
-      <c r="H23">
-        <v>2.2</v>
-      </c>
-      <c r="I23">
-        <v>3.25</v>
-      </c>
-      <c r="J23">
-        <v>2.55</v>
-      </c>
-      <c r="K23">
-        <v>3.5</v>
-      </c>
-      <c r="L23">
-        <v>2.55</v>
-      </c>
-      <c r="M23">
-        <v>1.36</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
+        <v>1.8</v>
+      </c>
+      <c r="U23">
+        <v>1.81</v>
+      </c>
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>1.72</v>
+      </c>
+      <c r="X23">
+        <v>1.32</v>
+      </c>
+      <c r="Y23">
+        <v>1.27</v>
+      </c>
+      <c r="Z23">
+        <v>1.56</v>
+      </c>
+      <c r="AA23">
+        <v>2.18</v>
+      </c>
+      <c r="AB23">
+        <v>1.63</v>
+      </c>
+      <c r="AC23">
+        <v>1.56</v>
+      </c>
+      <c r="AD23">
+        <v>3.19</v>
+      </c>
+      <c r="AE23">
+        <v>2.06</v>
+      </c>
+      <c r="AF23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG23">
+        <v>2.01</v>
+      </c>
+      <c r="AH23">
+        <v>1.42</v>
+      </c>
+      <c r="AI23">
+        <v>2.57</v>
+      </c>
+      <c r="AJ23">
+        <v>1.79</v>
+      </c>
+      <c r="AK23">
+        <v>1.92</v>
+      </c>
+      <c r="AL23">
         <v>2.3</v>
       </c>
-      <c r="U23">
-        <v>1.62</v>
-      </c>
-      <c r="V23">
-        <v>2.2</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>1.5</v>
-      </c>
-      <c r="AA23">
-        <v>1.13</v>
-      </c>
-      <c r="AB23">
-        <v>1.31</v>
-      </c>
-      <c r="AC23">
-        <v>1.45</v>
-      </c>
-      <c r="AD23">
-        <v>2.76</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2">
         <v>45406</v>
@@ -3798,7 +3798,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>91</v>
@@ -3807,120 +3807,120 @@
         <v>122</v>
       </c>
       <c r="G24">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H24">
         <v>2.2</v>
       </c>
       <c r="I24">
+        <v>3.25</v>
+      </c>
+      <c r="J24">
+        <v>2.67</v>
+      </c>
+      <c r="K24">
         <v>3.75</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>3.5</v>
-      </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="M24">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U24">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V24">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA24">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="AB24">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AC24">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AD24">
-        <v>2.69</v>
+        <v>2.76</v>
       </c>
       <c r="AE24">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>4.11</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2">
         <v>45406</v>
@@ -3929,7 +3929,7 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
@@ -3938,115 +3938,115 @@
         <v>123</v>
       </c>
       <c r="G25">
-        <v>4.1</v>
+        <v>2.55</v>
       </c>
       <c r="H25">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="I25">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="J25">
-        <v>3.47</v>
+        <v>1.98</v>
       </c>
       <c r="K25">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="L25">
-        <v>2.05</v>
+        <v>3.58</v>
       </c>
       <c r="M25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O25">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P25">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Q25">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="R25">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="T25">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="U25">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="V25">
+        <v>2.35</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>1.25</v>
+      </c>
+      <c r="Y25">
+        <v>1.73</v>
+      </c>
+      <c r="Z25">
+        <v>1.75</v>
+      </c>
+      <c r="AA25">
+        <v>1.62</v>
+      </c>
+      <c r="AB25">
+        <v>1.4</v>
+      </c>
+      <c r="AC25">
+        <v>1.29</v>
+      </c>
+      <c r="AD25">
+        <v>2.69</v>
+      </c>
+      <c r="AE25">
+        <v>1.69</v>
+      </c>
+      <c r="AF25">
+        <v>8.5</v>
+      </c>
+      <c r="AG25">
+        <v>2.53</v>
+      </c>
+      <c r="AH25">
+        <v>1.19</v>
+      </c>
+      <c r="AI25">
+        <v>4.11</v>
+      </c>
+      <c r="AJ25">
+        <v>1.42</v>
+      </c>
+      <c r="AK25">
+        <v>2.85</v>
+      </c>
+      <c r="AL25">
+        <v>1.71</v>
+      </c>
+      <c r="AM25">
+        <v>2.13</v>
+      </c>
+      <c r="AN25">
         <v>1.95</v>
       </c>
-      <c r="W25">
-        <v>1.72</v>
-      </c>
-      <c r="X25">
-        <v>1.32</v>
-      </c>
-      <c r="Y25">
-        <v>1.27</v>
-      </c>
-      <c r="Z25">
-        <v>1.56</v>
-      </c>
-      <c r="AA25">
-        <v>2.18</v>
-      </c>
-      <c r="AB25">
-        <v>1.63</v>
-      </c>
-      <c r="AC25">
-        <v>1.56</v>
-      </c>
-      <c r="AD25">
-        <v>3.19</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4078,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="J26">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="K26">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="M26">
         <v>1.22</v>
@@ -4105,10 +4105,10 @@
         <v>5.38</v>
       </c>
       <c r="S26">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="T26">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="U26">
         <v>1.75</v>
@@ -4209,13 +4209,13 @@
         <v>2.63</v>
       </c>
       <c r="J27">
-        <v>2.95</v>
+        <v>3.49</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>4.09</v>
       </c>
       <c r="L27">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4236,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="S27">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="T27">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="U27">
         <v>1.57</v>
@@ -4340,13 +4340,13 @@
         <v>2.2</v>
       </c>
       <c r="J28">
-        <v>5.75</v>
+        <v>5.13</v>
       </c>
       <c r="K28">
-        <v>4.5</v>
+        <v>4.42</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="M28">
         <v>1.33</v>
@@ -4367,10 +4367,10 @@
         <v>5.25</v>
       </c>
       <c r="S28">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="T28">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
         <v>45406</v>
@@ -4602,13 +4602,13 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="M30">
         <v>1.4</v>
@@ -4629,10 +4629,10 @@
         <v>3.18</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>45406</v>
@@ -4733,13 +4733,13 @@
         <v>3.75</v>
       </c>
       <c r="J31">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K31">
-        <v>3.33</v>
+        <v>3.83</v>
       </c>
       <c r="L31">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4760,10 +4760,10 @@
         <v>4.28</v>
       </c>
       <c r="S31">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T31">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U31">
         <v>1.57</v>
@@ -4855,61 +4855,61 @@
         <v>130</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="J32">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="K32">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Z32">
         <v>2</v>
@@ -4927,43 +4927,43 @@
         <v>3.02</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,12 +163,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>France Ligue 1</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>France Ligue 1</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -250,24 +250,24 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AIK</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
     <t>AEK Athens</t>
   </si>
   <si>
@@ -343,22 +343,22 @@
     <t>Almere City</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
     <t>National Bank of Egypt</t>
-  </si>
-  <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Värnamo</t>
-  </si>
-  <si>
-    <t>Häcken</t>
   </si>
   <si>
     <t>Panathinaikos</t>
@@ -934,13 +934,13 @@
         <v>4.75</v>
       </c>
       <c r="J2">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="K2">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4.44</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -961,10 +961,10 @@
         <v>2.65</v>
       </c>
       <c r="S2">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="T2">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U2">
         <v>2.18</v>
@@ -1086,10 +1086,10 @@
         <v>5.27</v>
       </c>
       <c r="Q3">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R3">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -1196,13 +1196,13 @@
         <v>1.62</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M4">
         <v>1.29</v>
@@ -1223,10 +1223,10 @@
         <v>4.75</v>
       </c>
       <c r="S4">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T4">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>2.25</v>
@@ -1327,13 +1327,13 @@
         <v>2.7</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="K5">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1354,10 +1354,10 @@
         <v>3.5</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T5">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U5">
         <v>1.68</v>
@@ -1458,13 +1458,13 @@
         <v>3.65</v>
       </c>
       <c r="J6">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="K6">
-        <v>3.36</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="M6">
         <v>1.43</v>
@@ -1485,10 +1485,10 @@
         <v>3.05</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="T6">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="U6">
         <v>1.88</v>
@@ -1589,13 +1589,13 @@
         <v>2.3</v>
       </c>
       <c r="J7">
-        <v>4.52</v>
+        <v>6.25</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="L7">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1616,10 +1616,10 @@
         <v>3.34</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="U7">
         <v>1.91</v>
@@ -1720,13 +1720,13 @@
         <v>1.95</v>
       </c>
       <c r="J8">
-        <v>6.66</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>4.6</v>
       </c>
       <c r="L8">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M8">
         <v>1.3</v>
@@ -1747,10 +1747,10 @@
         <v>4.05</v>
       </c>
       <c r="S8">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T8">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="U8">
         <v>1.91</v>
@@ -1851,13 +1851,13 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -1878,10 +1878,10 @@
         <v>3.15</v>
       </c>
       <c r="S9">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U9">
         <v>1.8</v>
@@ -1982,13 +1982,13 @@
         <v>8.5</v>
       </c>
       <c r="J10">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="K10">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L10">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -2009,10 +2009,10 @@
         <v>4.65</v>
       </c>
       <c r="S10">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T10">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="U10">
         <v>2.05</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>45406</v>
@@ -2095,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>78</v>
@@ -2104,120 +2104,120 @@
         <v>109</v>
       </c>
       <c r="G11">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="I11">
+        <v>1.83</v>
+      </c>
+      <c r="J11">
         <v>6.5</v>
       </c>
-      <c r="J11">
-        <v>1.4</v>
-      </c>
       <c r="K11">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>1.41</v>
       </c>
       <c r="M11">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>3.08</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
         <v>1.01</v>
       </c>
       <c r="P11">
-        <v>9.300000000000001</v>
+        <v>21</v>
       </c>
       <c r="Q11">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="R11">
-        <v>3.54</v>
+        <v>5.2</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="T11">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="U11">
+        <v>1.67</v>
+      </c>
+      <c r="V11">
         <v>2.1</v>
       </c>
-      <c r="V11">
-        <v>1.67</v>
-      </c>
       <c r="W11">
-        <v>1.06</v>
+        <v>2.85</v>
       </c>
       <c r="X11">
         <v>1.18</v>
       </c>
       <c r="Y11">
-        <v>2.67</v>
+        <v>1.13</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0.93</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AB11">
-        <v>2.03</v>
+        <v>1.2</v>
       </c>
       <c r="AC11">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AD11">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="AE11">
-        <v>1.36</v>
+        <v>3.45</v>
       </c>
       <c r="AF11">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>3.68</v>
+        <v>1.44</v>
       </c>
       <c r="AH11">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI11">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="AJ11">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AK11">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AL11">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AM11">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="AN11">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AO11">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AP11">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>45406</v>
@@ -2226,7 +2226,7 @@
         <v>62</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -2235,120 +2235,120 @@
         <v>110</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Z12">
-        <v>0.43</v>
+        <v>3</v>
       </c>
       <c r="AA12">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AB12">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AC12">
-        <v>1.73</v>
+        <v>0.88</v>
       </c>
       <c r="AD12">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>45406</v>
@@ -2366,28 +2366,28 @@
         <v>111</v>
       </c>
       <c r="G13">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>2.35</v>
       </c>
       <c r="K13">
-        <v>3.76</v>
+        <v>3.35</v>
       </c>
       <c r="L13">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="M13">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
         <v>1.04</v>
@@ -2396,85 +2396,85 @@
         <v>11</v>
       </c>
       <c r="Q13">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R13">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S13">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="U13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="V13">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="W13">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X13">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13">
         <v>1</v>
       </c>
-      <c r="AA13">
-        <v>1.5</v>
-      </c>
       <c r="AB13">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AD13">
-        <v>3.18</v>
+        <v>2.29</v>
       </c>
       <c r="AE13">
         <v>1.86</v>
       </c>
       <c r="AF13">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AG13">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="AH13">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AI13">
-        <v>4.5</v>
+        <v>5.15</v>
       </c>
       <c r="AJ13">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AK13">
-        <v>3.04</v>
+        <v>3.42</v>
       </c>
       <c r="AL13">
+        <v>1.47</v>
+      </c>
+      <c r="AM13">
+        <v>2.49</v>
+      </c>
+      <c r="AN13">
+        <v>1.8</v>
+      </c>
+      <c r="AO13">
+        <v>1.95</v>
+      </c>
+      <c r="AP13">
+        <v>2.25</v>
+      </c>
+      <c r="AQ13">
         <v>1.57</v>
-      </c>
-      <c r="AM13">
-        <v>2.25</v>
-      </c>
-      <c r="AN13">
-        <v>1.97</v>
-      </c>
-      <c r="AO13">
-        <v>1.78</v>
-      </c>
-      <c r="AP13">
-        <v>2.52</v>
-      </c>
-      <c r="AQ13">
-        <v>1.46</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2488,7 +2488,7 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>81</v>
@@ -2497,120 +2497,120 @@
         <v>112</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2.85</v>
       </c>
       <c r="H14">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="I14">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
-        <v>8.65</v>
+        <v>2.2</v>
       </c>
       <c r="K14">
-        <v>5.44</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="N14">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O14">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="R14">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="T14">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="U14">
+        <v>1.56</v>
+      </c>
+      <c r="V14">
+        <v>2.53</v>
+      </c>
+      <c r="W14">
+        <v>1.44</v>
+      </c>
+      <c r="X14">
+        <v>1.28</v>
+      </c>
+      <c r="Y14">
         <v>1.67</v>
       </c>
-      <c r="V14">
-        <v>2.1</v>
-      </c>
-      <c r="W14">
-        <v>2.85</v>
-      </c>
-      <c r="X14">
-        <v>1.18</v>
-      </c>
-      <c r="Y14">
-        <v>1.13</v>
-      </c>
       <c r="Z14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>2.43</v>
+        <v>1.5</v>
       </c>
       <c r="AB14">
-        <v>1.2</v>
+        <v>1.92</v>
       </c>
       <c r="AC14">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AD14">
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
       <c r="AE14">
-        <v>3.45</v>
+        <v>1.86</v>
       </c>
       <c r="AF14">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG14">
-        <v>1.44</v>
+        <v>2.23</v>
       </c>
       <c r="AH14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI14">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AJ14">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="AK14">
-        <v>2.35</v>
+        <v>3.04</v>
       </c>
       <c r="AL14">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AM14">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="AN14">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="AO14">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="AQ14">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>45406</v>
@@ -2619,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
@@ -2628,120 +2628,120 @@
         <v>113</v>
       </c>
       <c r="G15">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.43</v>
+      </c>
+      <c r="AA15">
+        <v>1.14</v>
+      </c>
+      <c r="AB15">
         <v>1.27</v>
       </c>
-      <c r="R15">
-        <v>3.8</v>
-      </c>
-      <c r="S15">
-        <v>1.85</v>
-      </c>
-      <c r="T15">
-        <v>1.96</v>
-      </c>
-      <c r="U15">
-        <v>1.83</v>
-      </c>
-      <c r="V15">
-        <v>1.83</v>
-      </c>
-      <c r="W15">
-        <v>1.14</v>
-      </c>
-      <c r="X15">
-        <v>1.18</v>
-      </c>
-      <c r="Y15">
-        <v>2.35</v>
-      </c>
-      <c r="Z15">
+      <c r="AC15">
+        <v>1.73</v>
+      </c>
+      <c r="AD15">
         <v>3</v>
       </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <v>1.09</v>
-      </c>
-      <c r="AC15">
-        <v>0.88</v>
-      </c>
-      <c r="AD15">
-        <v>1.97</v>
-      </c>
       <c r="AE15">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>45406</v>
@@ -2750,7 +2750,7 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>83</v>
@@ -2759,115 +2759,115 @@
         <v>114</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="H16">
         <v>2.2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J16">
-        <v>2.47</v>
+        <v>1.36</v>
       </c>
       <c r="K16">
-        <v>3.68</v>
+        <v>4.33</v>
       </c>
       <c r="L16">
-        <v>2.64</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="O16">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q16">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R16">
-        <v>4.33</v>
+        <v>3.54</v>
       </c>
       <c r="S16">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="V16">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="W16">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="X16">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y16">
-        <v>1.5</v>
+        <v>2.67</v>
       </c>
       <c r="Z16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>1.05</v>
+        <v>2.03</v>
       </c>
       <c r="AC16">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AD16">
-        <v>2.29</v>
+        <v>3.4</v>
       </c>
       <c r="AE16">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="AF16">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG16">
+        <v>3.68</v>
+      </c>
+      <c r="AH16">
+        <v>1.21</v>
+      </c>
+      <c r="AI16">
+        <v>3.74</v>
+      </c>
+      <c r="AJ16">
+        <v>1.41</v>
+      </c>
+      <c r="AK16">
+        <v>2.6</v>
+      </c>
+      <c r="AL16">
+        <v>2.38</v>
+      </c>
+      <c r="AM16">
+        <v>2.05</v>
+      </c>
+      <c r="AN16">
         <v>2.22</v>
       </c>
-      <c r="AH16">
-        <v>1.11</v>
-      </c>
-      <c r="AI16">
-        <v>5.15</v>
-      </c>
-      <c r="AJ16">
-        <v>1.25</v>
-      </c>
-      <c r="AK16">
-        <v>3.42</v>
-      </c>
-      <c r="AL16">
-        <v>1.47</v>
-      </c>
-      <c r="AM16">
-        <v>2.49</v>
-      </c>
-      <c r="AN16">
-        <v>1.8</v>
-      </c>
       <c r="AO16">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.84</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2899,13 +2899,13 @@
         <v>4.5</v>
       </c>
       <c r="J17">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L17">
-        <v>3.82</v>
+        <v>4.3</v>
       </c>
       <c r="M17">
         <v>1.4</v>
@@ -2926,10 +2926,10 @@
         <v>3.22</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T17">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -3030,13 +3030,13 @@
         <v>2.88</v>
       </c>
       <c r="J18">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L18">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="M18">
         <v>1.25</v>
@@ -3057,10 +3057,10 @@
         <v>4.82</v>
       </c>
       <c r="S18">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U18">
         <v>1.5</v>
@@ -3114,7 +3114,7 @@
         <v>3.28</v>
       </c>
       <c r="AL18">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="AM18">
         <v>2.41</v>
@@ -3164,10 +3164,10 @@
         <v>4.9</v>
       </c>
       <c r="K19">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="M19">
         <v>1.4</v>
@@ -3188,10 +3188,10 @@
         <v>3.2</v>
       </c>
       <c r="S19">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="T19">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U19">
         <v>1.83</v>
@@ -3224,43 +3224,43 @@
         <v>2.49</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3292,13 +3292,13 @@
         <v>3.18</v>
       </c>
       <c r="J20">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K20">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L20">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="M20">
         <v>1.38</v>
@@ -3319,10 +3319,10 @@
         <v>3.6</v>
       </c>
       <c r="S20">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T20">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U20">
         <v>1.7</v>
@@ -3423,13 +3423,13 @@
         <v>3.75</v>
       </c>
       <c r="J21">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="K21">
-        <v>3.73</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3450,10 +3450,10 @@
         <v>4.09</v>
       </c>
       <c r="S21">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="T21">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U21">
         <v>1.57</v>
@@ -3554,13 +3554,13 @@
         <v>3.95</v>
       </c>
       <c r="J22">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K22">
-        <v>3.97</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <v>1.3</v>
@@ -3581,10 +3581,10 @@
         <v>4.33</v>
       </c>
       <c r="S22">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="T22">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
         <v>1.57</v>
@@ -3688,10 +3688,10 @@
         <v>3.45</v>
       </c>
       <c r="K23">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L23">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="M23">
         <v>1.38</v>
@@ -3712,10 +3712,10 @@
         <v>3.1</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="U23">
         <v>1.81</v>
@@ -3816,13 +3816,13 @@
         <v>3.25</v>
       </c>
       <c r="J24">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="M24">
         <v>1.36</v>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T24">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="U24">
         <v>1.62</v>
@@ -3947,13 +3947,13 @@
         <v>3.75</v>
       </c>
       <c r="J25">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="K25">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="L25">
-        <v>3.58</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>1.33</v>
@@ -3977,7 +3977,7 @@
         <v>1.65</v>
       </c>
       <c r="T25">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
         <v>1.53</v>
@@ -4078,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="J26">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="K26">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L26">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <v>1.22</v>
@@ -4105,10 +4105,10 @@
         <v>5.38</v>
       </c>
       <c r="S26">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T26">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U26">
         <v>1.75</v>
@@ -4209,13 +4209,13 @@
         <v>2.63</v>
       </c>
       <c r="J27">
-        <v>3.49</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>4.09</v>
+        <v>3.55</v>
       </c>
       <c r="L27">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4236,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="S27">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="T27">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="U27">
         <v>1.57</v>
@@ -4340,13 +4340,13 @@
         <v>2.2</v>
       </c>
       <c r="J28">
-        <v>5.13</v>
+        <v>5.75</v>
       </c>
       <c r="K28">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="L28">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="M28">
         <v>1.33</v>
@@ -4367,10 +4367,10 @@
         <v>5.25</v>
       </c>
       <c r="S28">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="T28">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2">
         <v>45406</v>
@@ -4602,13 +4602,13 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="K30">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
         <v>1.4</v>
@@ -4629,10 +4629,10 @@
         <v>3.18</v>
       </c>
       <c r="S30">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2">
         <v>45406</v>
@@ -4733,13 +4733,13 @@
         <v>3.75</v>
       </c>
       <c r="J31">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="K31">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4763,7 +4763,7 @@
         <v>1.67</v>
       </c>
       <c r="T31">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U31">
         <v>1.57</v>
@@ -4864,13 +4864,13 @@
         <v>4.53</v>
       </c>
       <c r="J32">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L32">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M32">
         <v>1.34</v>
@@ -4891,10 +4891,10 @@
         <v>3.56</v>
       </c>
       <c r="S32">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T32">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="U32">
         <v>1.72</v>

--- a/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -982,10 +982,10 @@
         <v>1.87</v>
       </c>
       <c r="Z2">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AA2">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AB2">
         <v>1.55</v>
@@ -1068,7 +1068,7 @@
         <v>2.5</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1086,16 +1086,16 @@
         <v>5.27</v>
       </c>
       <c r="Q3">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="R3">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T3">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U3">
         <v>2.38</v>
@@ -1113,10 +1113,10 @@
         <v>1.43</v>
       </c>
       <c r="Z3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AA3">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AB3">
         <v>1.48</v>
@@ -1244,10 +1244,10 @@
         <v>1.02</v>
       </c>
       <c r="Z4">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AB4">
         <v>1.12</v>
@@ -1327,13 +1327,13 @@
         <v>2.7</v>
       </c>
       <c r="J5">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1354,10 +1354,10 @@
         <v>3.5</v>
       </c>
       <c r="S5">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="U5">
         <v>1.68</v>
@@ -1375,10 +1375,10 @@
         <v>1.32</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB5">
         <v>1.71</v>
@@ -1458,13 +1458,13 @@
         <v>3.65</v>
       </c>
       <c r="J6">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M6">
         <v>1.43</v>
@@ -1485,10 +1485,10 @@
         <v>3.05</v>
       </c>
       <c r="S6">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U6">
         <v>1.88</v>
@@ -1506,10 +1506,10 @@
         <v>1.52</v>
       </c>
       <c r="Z6">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AA6">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AB6">
         <v>1.81</v>
@@ -1589,13 +1589,13 @@
         <v>2.3</v>
       </c>
       <c r="J7">
-        <v>6.25</v>
+        <v>4.2</v>
       </c>
       <c r="K7">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1616,10 +1616,10 @@
         <v>3.34</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="U7">
         <v>1.91</v>
@@ -1720,13 +1720,13 @@
         <v>1.95</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L8">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M8">
         <v>1.3</v>
@@ -1747,10 +1747,10 @@
         <v>4.05</v>
       </c>
       <c r="S8">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="T8">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="U8">
         <v>1.91</v>
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="K9">
         <v>3.25</v>
@@ -1878,10 +1878,10 @@
         <v>3.15</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T9">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="U9">
         <v>1.8</v>
@@ -1899,10 +1899,10 @@
         <v>1.36</v>
       </c>
       <c r="Z9">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AA9">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AB9">
         <v>1.07</v>
@@ -1982,13 +1982,13 @@
         <v>8.5</v>
       </c>
       <c r="J10">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="K10">
-        <v>5.6</v>
+        <v>5.25</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -2009,10 +2009,10 @@
         <v>4.65</v>
       </c>
       <c r="S10">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="U10">
         <v>2.05</v>
@@ -2113,13 +2113,13 @@
         <v>1.83</v>
       </c>
       <c r="J11">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M11">
         <v>1.25</v>
@@ -2140,10 +2140,10 @@
         <v>5.2</v>
       </c>
       <c r="S11">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="T11">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2247,10 +2247,10 @@
         <v>1.55</v>
       </c>
       <c r="K12">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="M12">
         <v>1.37</v>
@@ -2271,10 +2271,10 @@
         <v>3.8</v>
       </c>
       <c r="S12">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T12">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U12">
         <v>1.83</v>
@@ -2375,13 +2375,13 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K13">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M13">
         <v>1.3</v>
@@ -2402,10 +2402,10 @@
         <v>4.33</v>
       </c>
       <c r="S13">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T13">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="U13">
         <v>1.5</v>
@@ -2506,13 +2506,13 @@
         <v>3.5</v>
       </c>
       <c r="J14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M14">
         <v>1.28</v>
@@ -2533,10 +2533,10 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="T14">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.56</v>
@@ -2762,19 +2762,19 @@
         <v>1.91</v>
       </c>
       <c r="H16">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J16">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K16">
         <v>4.33</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>1.36</v>
@@ -2795,16 +2795,16 @@
         <v>3.54</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W16">
         <v>1.06</v>
@@ -2899,13 +2899,13 @@
         <v>4.5</v>
       </c>
       <c r="J17">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K17">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L17">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
         <v>1.4</v>
@@ -2926,10 +2926,10 @@
         <v>3.22</v>
       </c>
       <c r="S17">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -3030,13 +3030,13 @@
         <v>2.88</v>
       </c>
       <c r="J18">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="K18">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="M18">
         <v>1.25</v>
@@ -3057,10 +3057,10 @@
         <v>4.82</v>
       </c>
       <c r="S18">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="T18">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="U18">
         <v>1.5</v>
@@ -3102,10 +3102,10 @@
         <v>2.4</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ18">
         <v>1.27</v>
@@ -3161,13 +3161,13 @@
         <v>2.38</v>
       </c>
       <c r="J19">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K19">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M19">
         <v>1.4</v>
@@ -3188,10 +3188,10 @@
         <v>3.2</v>
       </c>
       <c r="S19">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U19">
         <v>1.83</v>
@@ -3292,13 +3292,13 @@
         <v>3.18</v>
       </c>
       <c r="J20">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K20">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="M20">
         <v>1.38</v>
@@ -3319,7 +3319,7 @@
         <v>3.6</v>
       </c>
       <c r="S20">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T20">
         <v>1.8</v>
@@ -3423,13 +3423,13 @@
         <v>3.75</v>
       </c>
       <c r="J21">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
         <v>1.33</v>
@@ -3450,10 +3450,10 @@
         <v>4.09</v>
       </c>
       <c r="S21">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T21">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U21">
         <v>1.57</v>
@@ -3557,10 +3557,10 @@
         <v>1.75</v>
       </c>
       <c r="K22">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
         <v>1.3</v>
@@ -3581,10 +3581,10 @@
         <v>4.33</v>
       </c>
       <c r="S22">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="U22">
         <v>1.57</v>
@@ -3685,13 +3685,13 @@
         <v>2.75</v>
       </c>
       <c r="J23">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K23">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>1.38</v>
@@ -3712,10 +3712,10 @@
         <v>3.1</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U23">
         <v>1.81</v>
@@ -3816,7 +3816,7 @@
         <v>3.25</v>
       </c>
       <c r="J24">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K24">
         <v>3.6</v>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T24">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
         <v>1.62</v>
@@ -3947,13 +3947,13 @@
         <v>3.75</v>
       </c>
       <c r="J25">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="K25">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
         <v>1.33</v>
@@ -3974,10 +3974,10 @@
         <v>4.2</v>
       </c>
       <c r="S25">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U25">
         <v>1.53</v>
@@ -4078,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="J26">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="K26">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M26">
         <v>1.22</v>
@@ -4209,13 +4209,13 @@
         <v>2.63</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K27">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4236,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="S27">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T27">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U27">
         <v>1.57</v>
@@ -4340,13 +4340,13 @@
         <v>2.2</v>
       </c>
       <c r="J28">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L28">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M28">
         <v>1.33</v>
@@ -4367,10 +4367,10 @@
         <v>5.25</v>
       </c>
       <c r="S28">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T28">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -4602,10 +4602,10 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
         <v>3.4</v>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="T30">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -4733,13 +4733,13 @@
         <v>3.75</v>
       </c>
       <c r="J31">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="K31">
         <v>3.6</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4760,7 +4760,7 @@
         <v>4.28</v>
       </c>
       <c r="S31">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T31">
         <v>2.2</v>
@@ -4864,13 +4864,13 @@
         <v>4.53</v>
       </c>
       <c r="J32">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="K32">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
         <v>1.34</v>
